--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.870625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.085425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.875425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="7.775425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.525425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.770625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.870625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.085425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.875425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="7.775425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.525425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.770625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -1157,8 +1157,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.930625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
   </x:cols>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.520625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.285425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.955425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.595425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.215425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.015425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="13.955425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.555425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.415425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.235425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.915425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.555425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.635425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="11.470625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.935425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.520625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.285425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.955425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.595425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.215425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.015425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="13.955425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.555425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.415425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.235425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.915425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.555425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.635425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="11.470625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.935425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -1156,11 +1156,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.640625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="6.570625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.240625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="6.880625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.300625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.240625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.520625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.015425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="13.955425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.555425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.415425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.235425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.915425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.965425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.885425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.665425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.895425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.265425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.245425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.635425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="21.985425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.935425" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.865425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.015425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="13.955425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.555425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.415425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.235425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.915425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.965425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.885425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.665425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.895425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.265425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.245425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.635425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="21.985425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.935425" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.865425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -1156,11 +1156,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.300625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.240625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.520625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.290625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.950625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.720625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.965425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.885425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.665425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.895425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="16.265425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.245425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.100625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.885425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.665425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.265425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.245425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="21.985425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.985425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.865425" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.020625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.965425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.885425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.665425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.895425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="16.265425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.245425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.100625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.885425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.665425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.265425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.245425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="21.985425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.985425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.865425" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.020625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.100625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.885425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.665425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.265425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.245425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.800625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.255425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.075425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.645425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.475425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.985425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.655425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.020625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.670625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.100625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.885425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.665425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.265425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.245425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.800625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.255425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.075425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.645425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.475425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.985425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.655425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.020625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.670625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -1156,11 +1156,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.290625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.950625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.720625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.620625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.360625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.160625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.800625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.255425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.075425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.645425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.475425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.80001" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.733194" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.495875" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.098975" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.140453" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.655425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.704829" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.670625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.737877" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.800625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.255425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.075425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.645425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.475425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.80001" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.733194" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.495875" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.098975" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.140453" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.655425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.704829" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.670625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.737877" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -1156,11 +1156,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.620625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.360625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.160625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.096636" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.114759" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.781075" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.534509" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -1156,11 +1156,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.870625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.575425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.975425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="7.825425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.735425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.890625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.575425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.975425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="7.825425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.735425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.890625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -1156,11 +1156,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.870625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.990625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.040625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.300625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -858,7 +858,7 @@
       <x:c r="E3" s="15">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="16" t="n">
+      <x:c r="F3" s="16">
         <x:v>2000</x:v>
       </x:c>
       <x:c r="G3" s="17">
@@ -884,7 +884,7 @@
       <x:c r="E4" s="15">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="16" t="n">
+      <x:c r="F4" s="16">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="G4" s="17">
@@ -910,7 +910,7 @@
       <x:c r="E5" s="15">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="16" t="n">
+      <x:c r="F5" s="16">
         <x:v>10000</x:v>
       </x:c>
       <x:c r="G5" s="17">
@@ -927,7 +927,7 @@
       <x:c r="B6" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E6" s="15" t="s"/>
+      <x:c r="E6" s="15"/>
       <x:c r="F6" s="16">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
@@ -1029,7 +1029,7 @@
       <x:c r="E3" s="15">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="16" t="n">
+      <x:c r="F3" s="16">
         <x:v>2000</x:v>
       </x:c>
       <x:c r="G3" s="17">
@@ -1055,7 +1055,7 @@
       <x:c r="E4" s="15">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="16" t="n">
+      <x:c r="F4" s="16">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="G4" s="17">
@@ -1081,7 +1081,7 @@
       <x:c r="E5" s="15">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="16" t="n">
+      <x:c r="F5" s="16">
         <x:v>10000</x:v>
       </x:c>
       <x:c r="G5" s="17">
@@ -1098,7 +1098,7 @@
       <x:c r="B6" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E6" s="15" t="s"/>
+      <x:c r="E6" s="15"/>
       <x:c r="F6" s="16">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
@@ -1167,10 +1167,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s"/>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="C2" s="2"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
+      <x:c r="F2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -1202,7 +1202,7 @@
       <x:c r="E4" s="9">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="10" t="n">
+      <x:c r="F4" s="10">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
@@ -1219,7 +1219,7 @@
       <x:c r="E5" s="9">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="10" t="n">
+      <x:c r="F5" s="10">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
@@ -1236,7 +1236,7 @@
       <x:c r="E6" s="13">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F6" s="14" t="n">
+      <x:c r="F6" s="14">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>FName</x:t>
   </x:si>
@@ -81,8 +81,8 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
-    <x:numFmt numFmtId="166" formatCode="0.00"/>
+    <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -322,7 +322,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -334,16 +334,16 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -388,7 +388,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -404,7 +404,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -412,11 +412,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.930625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.575425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.975425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.825425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.996339" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="6.567768" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.735425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.853482" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.890625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.930625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.575425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.975425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.825425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.996339" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="6.567768" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.735425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.853482" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.890625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -1156,11 +1156,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.990625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.040625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.300625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -967,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -6,9 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Contacts Table" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Copy" sheetId="10" r:id="rId10"/>
-    <x:sheet name="Copy From Other" sheetId="11" r:id="rId11"/>
+    <x:sheet name="Contacts Table" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Copy" sheetId="2" r:id="rId10"/>
+    <x:sheet name="Copy From Other" sheetId="3" r:id="rId11"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
